--- a/我的论文/KD/KD_OPTION_C10.xlsx
+++ b/我的论文/KD/KD_OPTION_C10.xlsx
@@ -42,11 +42,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -58,7 +58,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -66,6 +66,121 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,122 +195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,19 +210,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,163 +360,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,15 +419,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -445,8 +436,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -456,7 +449,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +469,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -490,17 +501,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -512,7 +512,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,133 +521,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,8 +979,8 @@
   <sheetPr/>
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1555,6 +1555,45 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="F26">
+        <v>93.08</v>
+      </c>
+      <c r="G26">
+        <v>93.09</v>
+      </c>
+      <c r="H26">
+        <v>93.15</v>
+      </c>
+      <c r="I26">
+        <v>93.18</v>
+      </c>
+      <c r="J26">
+        <v>93.06</v>
+      </c>
+      <c r="K26">
+        <v>92.83</v>
+      </c>
+      <c r="L26">
+        <v>92.78</v>
+      </c>
+      <c r="M26">
+        <v>92.68</v>
+      </c>
+      <c r="N26">
+        <v>92.8</v>
+      </c>
+      <c r="O26">
+        <v>92.78</v>
+      </c>
+      <c r="P26">
+        <v>92.94</v>
+      </c>
+      <c r="Q26">
+        <v>92.98</v>
+      </c>
+      <c r="R26">
+        <v>92.92</v>
+      </c>
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:22">

--- a/我的论文/KD/KD_OPTION_C10.xlsx
+++ b/我的论文/KD/KD_OPTION_C10.xlsx
@@ -977,16 +977,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="18" max="19" width="12.8888888888889"/>
     <col min="21" max="22" width="12.8888888888889"/>
+    <col min="23" max="23" width="14.1111111111111"/>
+    <col min="24" max="24" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="18:18">
@@ -1542,7 +1544,7 @@
         <v>0.13876324475609</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1594,7 +1596,28 @@
       <c r="R26">
         <v>92.92</v>
       </c>
-      <c r="U26" s="1"/>
+      <c r="S26">
+        <v>92.94</v>
+      </c>
+      <c r="T26">
+        <v>92.95</v>
+      </c>
+      <c r="U26" s="1">
+        <f>AVERAGE(F26:T26)</f>
+        <v>92.944</v>
+      </c>
+      <c r="V26">
+        <f>STDEV(F26:T26)</f>
+        <v>0.148939105485623</v>
+      </c>
+      <c r="W26" s="1">
+        <f>U26-U16</f>
+        <v>-0.333333333333286</v>
+      </c>
+      <c r="X26" s="1">
+        <f>V26-V16</f>
+        <v>-0.0951471400057944</v>
+      </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27">
